--- a/data/InOrderUploadTests/3courseUpload.xlsx
+++ b/data/InOrderUploadTests/3courseUpload.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takoda\Documents\CS-Grad-Tracking\data\InOrderUploadTests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/donimal/CS-Grad-Tracking/data/InOrderUploadTests/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5F458F-A7EC-1C41-B231-1469703DA564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15915" windowHeight="9900"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15920" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,16 +69,16 @@
     <t>A TOPIC</t>
   </si>
   <si>
-    <t>test, test</t>
-  </si>
-  <si>
     <t>FA 2019</t>
+  </si>
+  <si>
+    <t>Alterovitz, Ron</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,28 +389,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -467,10 +468,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
